--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Rossi.Spring.012720.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Rossi.Spring.012720.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2319,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2613,12 +2613,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4985,12 +4985,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5783,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6077,12 +6077,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7093,12 +7093,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7303,12 +7303,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7815,12 +7815,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8025,12 +8025,12 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8995,12 +8995,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9373,12 +9373,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9457,12 +9457,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9755,12 +9755,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9885,12 +9885,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10141,12 +10141,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10817,12 +10817,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10859,12 +10859,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10901,12 +10901,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11325,12 +11325,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12135,12 +12135,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12475,12 +12475,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12773,12 +12773,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12815,12 +12815,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12941,12 +12941,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13529,12 +13529,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14247,12 +14247,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14961,12 +14961,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -15679,12 +15679,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16225,12 +16225,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16519,12 +16519,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16645,12 +16645,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17485,12 +17485,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17527,12 +17527,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17905,12 +17905,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17989,12 +17989,12 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18073,12 +18073,12 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18157,12 +18157,12 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18493,12 +18493,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18535,12 +18535,12 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18619,12 +18619,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19215,12 +19215,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19513,12 +19513,12 @@
       <c r="H452" t="inlineStr"/>
       <c r="I452" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19723,12 +19723,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19765,12 +19765,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20521,12 +20521,12 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20563,12 +20563,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20777,12 +20777,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20903,12 +20903,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21243,12 +21243,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22167,12 +22167,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22419,12 +22419,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22503,12 +22503,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22843,12 +22843,12 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23691,12 +23691,12 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J551" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23859,12 +23859,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -23985,12 +23985,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24027,12 +24027,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24153,12 +24153,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24279,12 +24279,12 @@
       <c r="H565" t="inlineStr"/>
       <c r="I565" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24405,12 +24405,12 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25803,12 +25803,12 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26559,12 +26559,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27147,12 +27147,12 @@
       <c r="H633" t="inlineStr"/>
       <c r="I633" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J633" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
